--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1427,28 +1427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.94567433442383</v>
+        <v>72.21240992539059</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.17909565640423</v>
+        <v>98.80420504656541</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.00410828149751</v>
+        <v>89.37447038951851</v>
       </c>
       <c r="AD2" t="n">
-        <v>54945.67433442383</v>
+        <v>72212.40992539059</v>
       </c>
       <c r="AE2" t="n">
-        <v>75179.09565640423</v>
+        <v>98804.20504656542</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.686358716404185e-06</v>
+        <v>1.108114983635972e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.955078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>68004.10828149751</v>
+        <v>89374.47038951851</v>
       </c>
     </row>
     <row r="3">
@@ -1533,28 +1533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.06470351664585</v>
+        <v>72.33143910761261</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.34195663471721</v>
+        <v>98.96706602487841</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.15142603661717</v>
+        <v>89.52178814463818</v>
       </c>
       <c r="AD3" t="n">
-        <v>55064.70351664585</v>
+        <v>72331.4391076126</v>
       </c>
       <c r="AE3" t="n">
-        <v>75341.95663471721</v>
+        <v>98967.06602487841</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.680570022320772e-06</v>
+        <v>1.107280448209486e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>68151.42603661717</v>
+        <v>89521.78814463818</v>
       </c>
     </row>
   </sheetData>
@@ -1830,28 +1830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.72258248935606</v>
+        <v>79.47217825334133</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.81980448695069</v>
+        <v>108.7373403512372</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.62928279558864</v>
+        <v>98.35960120195848</v>
       </c>
       <c r="AD2" t="n">
-        <v>62722.58248935606</v>
+        <v>79472.17825334132</v>
       </c>
       <c r="AE2" t="n">
-        <v>85819.80448695068</v>
+        <v>108737.3403512372</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.666888623329962e-06</v>
+        <v>1.122403652423333e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.1015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>77629.28279558863</v>
+        <v>98359.60120195849</v>
       </c>
     </row>
   </sheetData>
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.16393266700928</v>
+        <v>97.29520666913632</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.4743645567538</v>
+        <v>133.1235941262353</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.78979362364781</v>
+        <v>120.4184651430007</v>
       </c>
       <c r="AD2" t="n">
-        <v>74163.93266700927</v>
+        <v>97295.20666913631</v>
       </c>
       <c r="AE2" t="n">
-        <v>101474.3645567538</v>
+        <v>133123.5941262353</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.505451703591445e-06</v>
+        <v>1.006473677232363e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.393880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>91789.79362364781</v>
+        <v>120418.4651430007</v>
       </c>
     </row>
   </sheetData>
@@ -2424,28 +2424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.40879271250157</v>
+        <v>87.38784839316337</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.75870758771633</v>
+        <v>119.5679094512565</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.47857830217629</v>
+        <v>108.1565159878746</v>
       </c>
       <c r="AD2" t="n">
-        <v>63408.79271250156</v>
+        <v>87387.84839316337</v>
       </c>
       <c r="AE2" t="n">
-        <v>86758.70758771633</v>
+        <v>119567.9094512565</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.168522352661338e-06</v>
+        <v>1.083374459420031e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.680989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>78478.57830217629</v>
+        <v>108156.5159878746</v>
       </c>
     </row>
   </sheetData>
@@ -2721,28 +2721,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.78109404236677</v>
+        <v>109.3722776077694</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.7377213803842</v>
+        <v>149.6479753872312</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.4055599013099</v>
+        <v>135.3657826485672</v>
       </c>
       <c r="AD2" t="n">
-        <v>86781.09404236678</v>
+        <v>109372.2776077694</v>
       </c>
       <c r="AE2" t="n">
-        <v>118737.7213803842</v>
+        <v>149647.9753872312</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.735283463921295e-06</v>
+        <v>9.064546635937721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>107405.5599013099</v>
+        <v>135365.7826485672</v>
       </c>
     </row>
   </sheetData>
@@ -3018,28 +3018,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.07848284383605</v>
+        <v>79.9415968026959</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.30676305316545</v>
+        <v>109.3796195197486</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.06976671969466</v>
+        <v>98.94058214807185</v>
       </c>
       <c r="AD2" t="n">
-        <v>63078.48284383605</v>
+        <v>79941.5968026959</v>
       </c>
       <c r="AE2" t="n">
-        <v>86306.76305316546</v>
+        <v>109379.6195197486</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.656118479555411e-06</v>
+        <v>1.116175015760269e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.069010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>78069.76671969466</v>
+        <v>98940.58214807186</v>
       </c>
     </row>
   </sheetData>
@@ -3315,28 +3315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.59290916448101</v>
+        <v>121.8990846161632</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.2674120478443</v>
+        <v>166.7877053798286</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.2622414945485</v>
+        <v>150.8697208664387</v>
       </c>
       <c r="AD2" t="n">
-        <v>99592.90916448101</v>
+        <v>121899.0846161632</v>
       </c>
       <c r="AE2" t="n">
-        <v>136267.4120478443</v>
+        <v>166787.7053798286</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.158020548031533e-06</v>
+        <v>8.26436052499618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.229817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123262.2414945485</v>
+        <v>150869.7208664387</v>
       </c>
     </row>
   </sheetData>
@@ -3612,28 +3612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.61802785868694</v>
+        <v>78.99920215661194</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.67674822864448</v>
+        <v>108.0901935894596</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.49987962579442</v>
+        <v>97.77421721884862</v>
       </c>
       <c r="AD2" t="n">
-        <v>62618.02785868694</v>
+        <v>78999.20215661194</v>
       </c>
       <c r="AE2" t="n">
-        <v>85676.74822864449</v>
+        <v>108090.1935894596</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.507586451431163e-06</v>
+        <v>1.114758866926896e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.31640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>77499.87962579442</v>
+        <v>97774.21721884861</v>
       </c>
     </row>
   </sheetData>
@@ -3909,28 +3909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.4836106691245</v>
+        <v>79.1153715663971</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.49283269981736</v>
+        <v>108.2491417009602</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.33351673691143</v>
+        <v>97.91799554567274</v>
       </c>
       <c r="AD2" t="n">
-        <v>62483.61066912449</v>
+        <v>79115.37156639709</v>
       </c>
       <c r="AE2" t="n">
-        <v>85492.83269981736</v>
+        <v>108249.1417009602</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.650106348686034e-06</v>
+        <v>1.124904134506225e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.150390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>77333.51673691144</v>
+        <v>97917.99554567273</v>
       </c>
     </row>
   </sheetData>
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.8024532559112</v>
+        <v>80.37775717175514</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.98313425831529</v>
+        <v>109.9763933787326</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.82684916420855</v>
+        <v>99.480400747532</v>
       </c>
       <c r="AD2" t="n">
-        <v>54802.4532559112</v>
+        <v>80377.75717175513</v>
       </c>
       <c r="AE2" t="n">
-        <v>74983.13425831529</v>
+        <v>109976.3933787326</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.683148521446665e-06</v>
+        <v>1.111576804545628e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.987630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67826.84916420856</v>
+        <v>99480.400747532</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.77222868441113</v>
+        <v>79.04918800538039</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.88773260126052</v>
+        <v>108.1585864329646</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.69072794600646</v>
+        <v>97.83608274535945</v>
       </c>
       <c r="AD2" t="n">
-        <v>62772.22868441112</v>
+        <v>79049.18800538039</v>
       </c>
       <c r="AE2" t="n">
-        <v>85887.73260126052</v>
+        <v>108158.5864329646</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.343728630741443e-06</v>
+        <v>1.102796429443136e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.51171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>77690.72794600646</v>
+        <v>97836.08274535945</v>
       </c>
     </row>
   </sheetData>
@@ -4800,28 +4800,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.90533863159236</v>
+        <v>88.62181212430406</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.7523006722472</v>
+        <v>121.2562730668401</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.2320810993461</v>
+        <v>109.6837445496207</v>
       </c>
       <c r="AD2" t="n">
-        <v>72905.33863159236</v>
+        <v>88621.81212430405</v>
       </c>
       <c r="AE2" t="n">
-        <v>99752.30067224721</v>
+        <v>121256.27306684</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.776239538218906e-06</v>
+        <v>1.039303536138706e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.094401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>90232.08109934611</v>
+        <v>109683.7445496207</v>
       </c>
     </row>
   </sheetData>
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.05924095086476</v>
+        <v>99.06402122113869</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.0676089658239</v>
+        <v>135.5437642308744</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.13554242595838</v>
+        <v>122.6076576095839</v>
       </c>
       <c r="AD2" t="n">
-        <v>76059.24095086477</v>
+        <v>99064.02122113868</v>
       </c>
       <c r="AE2" t="n">
-        <v>104067.6089658238</v>
+        <v>135543.7642308744</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.169534674625238e-06</v>
+        <v>9.639776232775201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.787760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>94135.54242595838</v>
+        <v>122607.6576095839</v>
       </c>
     </row>
   </sheetData>
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.980139157299</v>
+        <v>153.3535790985504</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.0573871944561</v>
+        <v>209.8251324049686</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.7817348026151</v>
+        <v>189.7997162597213</v>
       </c>
       <c r="AD2" t="n">
-        <v>116980.139157299</v>
+        <v>153353.5790985504</v>
       </c>
       <c r="AE2" t="n">
-        <v>160057.3871944561</v>
+        <v>209825.1324049686</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.368211815285471e-06</v>
+        <v>7.118770539677046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>144781.7348026151</v>
+        <v>189799.7162597213</v>
       </c>
     </row>
   </sheetData>
@@ -8032,28 +8032,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.47973697482225</v>
+        <v>78.98887690724385</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.48753254037771</v>
+        <v>108.0760661277563</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.32872241724986</v>
+        <v>97.76143806226227</v>
       </c>
       <c r="AD2" t="n">
-        <v>62479.73697482226</v>
+        <v>78988.87690724384</v>
       </c>
       <c r="AE2" t="n">
-        <v>85487.53254037771</v>
+        <v>108076.0661277563</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.593631440864756e-06</v>
+        <v>1.121868532922013e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.222005208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>77328.72241724987</v>
+        <v>97761.43806226227</v>
       </c>
     </row>
   </sheetData>
@@ -8329,28 +8329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.36707700506685</v>
+        <v>80.33979134045931</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.70163031643705</v>
+        <v>109.9244468534194</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.4269484055594</v>
+        <v>99.4334119256873</v>
       </c>
       <c r="AD2" t="n">
-        <v>63367.07700506685</v>
+        <v>80339.79134045931</v>
       </c>
       <c r="AE2" t="n">
-        <v>86701.63031643705</v>
+        <v>109924.4468534194</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.65320416803935e-06</v>
+        <v>1.111374596310804e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>78426.94840555941</v>
+        <v>99433.41192568729</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8626,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.6586986508641</v>
+        <v>210.2674311264096</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.3980280737685</v>
+        <v>287.6971756113903</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.5046022366287</v>
+        <v>260.2397609566459</v>
       </c>
       <c r="AD2" t="n">
-        <v>167658.6986508641</v>
+        <v>210267.4311264096</v>
       </c>
       <c r="AE2" t="n">
-        <v>229398.0280737685</v>
+        <v>287697.1756113903</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.289434876468995e-06</v>
+        <v>5.483291957695816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.06705729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>207504.6022366287</v>
+        <v>260239.7609566459</v>
       </c>
     </row>
   </sheetData>
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.80373447686936</v>
+        <v>87.54601654974502</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.29908433332501</v>
+        <v>119.784322100978</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.96738224960777</v>
+        <v>108.3522745180438</v>
       </c>
       <c r="AD2" t="n">
-        <v>63803.73447686936</v>
+        <v>87546.01654974502</v>
       </c>
       <c r="AE2" t="n">
-        <v>87299.08433332501</v>
+        <v>119784.322100978</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.024554072245267e-06</v>
+        <v>1.06907153571932e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>78967.38224960776</v>
+        <v>108352.2745180438</v>
       </c>
     </row>
   </sheetData>
@@ -9220,28 +9220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.58383167629452</v>
+        <v>78.8310226363361</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.62995950326612</v>
+        <v>107.8600829502615</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.45755635069773</v>
+        <v>97.56606801609321</v>
       </c>
       <c r="AD2" t="n">
-        <v>62583.83167629452</v>
+        <v>78831.0226363361</v>
       </c>
       <c r="AE2" t="n">
-        <v>85629.95950326612</v>
+        <v>107860.0829502615</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.444656070824044e-06</v>
+        <v>1.11142066614442e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>77457.55635069773</v>
+        <v>97566.06801609321</v>
       </c>
     </row>
   </sheetData>
